--- a/pwiddy/src/test/resources/testdata.xlsx
+++ b/pwiddy/src/test/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cc38fb934e298f8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cc38fb934e298f8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{713F3A93-C68E-43B7-9B71-A965C783508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C2BACB-8EBE-4075-A336-858360FD7C1D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{CDA6E7E2-7EC7-478B-8519-CD247052DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1AAC658-F57F-4DC7-AE6C-3EB970E82B66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8AE5A87-D1EA-42DC-950C-61EBC3106ABA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>street</t>
   </si>
@@ -64,6 +64,51 @@
   </si>
   <si>
     <t>West, Mayer and Wintheiser</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>food name</t>
+  </si>
+  <si>
+    <t>Specials</t>
+  </si>
+  <si>
+    <t>Rustic Metal Pizza</t>
+  </si>
+  <si>
+    <t>Herman - Windler</t>
+  </si>
+  <si>
+    <t>Desserts</t>
+  </si>
+  <si>
+    <t>Generic Metal Salad</t>
+  </si>
+  <si>
+    <t>cardname</t>
+  </si>
+  <si>
+    <t>cardnumber</t>
+  </si>
+  <si>
+    <t>expriydate</t>
+  </si>
+  <si>
+    <t>cvvnum</t>
+  </si>
+  <si>
+    <t>1234567890987654</t>
+  </si>
+  <si>
+    <t>wwwwwwwwww</t>
+  </si>
+  <si>
+    <t>03/2000</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
 </sst>
 </file>
@@ -99,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,52 +482,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C78BFE-F8ED-4464-96C0-7BDB9474B916}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
